--- a/리뷰 크롤링/idus_itemreview_2023-08-08_20-24.xlsx
+++ b/리뷰 크롤링/idus_itemreview_2023-08-08_20-24.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\StarDigital-YouthMall_Chatbot_and_Solution_Project\리뷰 크롤링\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9002EDF-9FD9-4641-956E-330DA24D1FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>item_name</t>
-  </si>
-  <si>
-    <t>item_url</t>
-  </si>
-  <si>
-    <t>item_review</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,28 +420,394 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>item_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>item_url</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>item_review</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>린넨 7부액주음한복원피스</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/a5305c54-96f7-463a-aef2-84ceb9b245f4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>싸이즈가 맞지않아서 수선비가 많이 들었어요미안해요좋은글 남기지 못해서요</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>유화꽃밭 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/4c80a8f8-4cfc-4e4b-bfec-5f8e48f7b927</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>허걱 너무 이빠요 저고리 부분에 똑딱이 단추까지 음 진짜 신경써서 잘 만든 옷입니다 넉넉하게 입으려고 한 사이즈 크게 했는데 여유가 꽤 있네요 이런 여유로움이 더 한복스럽기도 하고 여튼 맘에 쏙 또 올게용</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>줄누빔 조끼철릭원피스</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/eca7f3e3-78ae-4d99-8530-b43519c4f387</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>색이며 디자인 따뜻함까지 마음에 쏙다만 미처 생각못한 무게감이</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>줄누빔 조끼철릭원피스</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/eca7f3e3-78ae-4d99-8530-b43519c4f387</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>고민끝에 주문했는데역시 구매하길 잘했어요색상이 생각보다 다운된거말고는 너무 맘에 듭니다 한가지 더 아쉬운점은 깃 부분에 수가 놓아지면 더 예쁠거 같아요  그래도 굿이에요</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>줄누빔 조끼철릭원피스</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/eca7f3e3-78ae-4d99-8530-b43519c4f387</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>저는 명절에 노모가 툭 걸쳐입으시고 손님 맞으심 좋겠다고 생각하고 구매하였습니다80노모께는 조금 무거운 옷이였던가 합니다그래도 잘 입으시면 좋겠습니다 명절에 입고계시면 사진후기 올릴게요 다른 트집어른들이 까다로우시니까요없으신걸 보니 잘만드셨은리라고 봅니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>줄누빔 조끼철릭원피스</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/eca7f3e3-78ae-4d99-8530-b43519c4f387</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>저의 집은 매년 설에 한복을 있습니다한복은 입을때마다 너무 불편해서 이번 설은 누빔 생활한복을 꼭 사서 입어야 겠다 마음 먹었죠찾다보니 원하던 누빔 원피스한복이 없더라구요근데 딱 도깨비 매 에서 한복 찾았어요마감도 깨끗하고 두께도 있어 따뜻해요키 165에 길이가 복숭아뼈 보다 좀 더 위에 내려오네요좀 더 길이가 길었으면 하는 아쉬움도 있어요이번 설은 너무 편할것 같아요좋아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>줄누빔 조끼철릭원피스</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/eca7f3e3-78ae-4d99-8530-b43519c4f387</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>가격이 비싸서 살짝 고민했었는데그만한  값어치 이상이에요고급지고 단아하고 몸매커버 잘 해주고딱 좋아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>줄누빔 조끼철릭원피스</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/eca7f3e3-78ae-4d99-8530-b43519c4f387</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>역시 예쁜디자인 입니다입고 벗기 참 편합니다봄 가을용 버전도 있었으면 좋겠어요혹시 다른 원단으로도 가능할까요</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>줄누빔 조끼철릭원피스</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/eca7f3e3-78ae-4d99-8530-b43519c4f387</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>주문한 철릭원피스 왔어요77반 사이즈라 8899시켰더니 조금커요디자인멋져요</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>줄누빔 조끼철릭원피스</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/eca7f3e3-78ae-4d99-8530-b43519c4f387</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>사이즈 넉넉해서 편합니다돌아오는 설에 입을 생각하니설레네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>줄누빔 조끼철릭원피스</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/eca7f3e3-78ae-4d99-8530-b43519c4f387</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>옷 퀄리티가 좋아요실내에서 입기에 다소 두껍고 무거운게 조금 불편해요두꺼워서 옷이 뻣뻣한데불편은하지만 뻣뻣함이 옷형태를 또 잡아줘서입었을때 너무예뻐요 앞으로 명절에는 이옷입으면 옷걱정 끝</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>줄누빔 조끼철릭원피스</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/eca7f3e3-78ae-4d99-8530-b43519c4f387</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>퀄리티 너무 좋습니다척용효과도 기대 이상으로 이쁩니다 예쁜 생활한복 많이 만들어주세요예쁘게 잘 입겠습니돠</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>줄누빔 조끼철릭원피스</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/eca7f3e3-78ae-4d99-8530-b43519c4f387</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>옷 너무 맘에 듭니다계절에 이른감은 있지만 미리 구입했어요고급스럽고 단아해 보이네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>줄누빔 조끼철릭원피스</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/eca7f3e3-78ae-4d99-8530-b43519c4f387</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>빠르게 잘 받았습니다색깔도 맘에 들고 디자인도 너무 예뻐요가슴이 커서 여미는 부분이 벌어지기는 하지만 예쁘게 잘 입겠습니다꼼꼼한 포장에 kf94  마스크 써비스까지감사합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>줄누빔 조끼철릭원피스</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/eca7f3e3-78ae-4d99-8530-b43519c4f387</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>고급진 명품같은 느낌의 옷이에요돈이 하나도 안 아까운 옷이네요 소재도 바느질도 최고에요 남색샀는데 색도 넘 이뻐요</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>줄누빔 조끼철릭원피스</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/eca7f3e3-78ae-4d99-8530-b43519c4f387</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>후기가없어서 걱정하는맘으로 주문했는데고급지네요사진올릴까하다 괜시리 민폐될까</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>물망초 면벨벳 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/8d2c8e5a-10d2-475d-9fdf-c27dca3a42d7</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>완전 맘에 들어요 제가 키가 작아서 길이를 줄여달라고 요청드리니  맞춰서 예쁘게 지어주셨어요 설전에 배송도 빠르게 보내주셔서 오늘 나들이 갈때 입고 찍었어요 평상복으로도 손색없는 생활한복이네요 감사합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>물망초 면벨벳 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/8d2c8e5a-10d2-475d-9fdf-c27dca3a42d7</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>도착했습니다  딱 생일날 도착해서 선물 받는 기분 이였어요한복이 입기 편하고 따로 요청 드려서 수정했는데기장도 딱 맞고 어깨도 딱 맞아서 좋아요상의에 안감도 있고 한복 느낌도 부드럽고 좋아요정말 감사합니다예쁘게 만들어 주셔서잘 입고 다닐께용 좋은 하루 되세요</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>물망초 면벨벳 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/8d2c8e5a-10d2-475d-9fdf-c27dca3a42d7</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>사진하고 똑같아요고급스럽고 유행없이 입기 좋습니다급하게 요청드렸는데 날짜 맞춰주셔서감사합니다 많이 파세용</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>물망초 면벨벳 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/8d2c8e5a-10d2-475d-9fdf-c27dca3a42d7</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>이번 명절에 이쁘게 잘 입었습니다 채팅상담도 빠르게 잘 해주셔서 감사해요</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>물망초 면벨벳 철릭원피스</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.idus.com/w/product/8d2c8e5a-10d2-475d-9fdf-c27dca3a42d7</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>받기 전에는 기대를 넘 많이 했나봐요 그래도 사진과 같아요옷 예뻐요살짝 뻣뻣한 감은 있지만 그래도 작가님 정성이  보입니다최고입니다사업 번창하세요새해 복 많이 받으세요 감사합니다</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>